--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2439.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2439.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.032197898656163</v>
+        <v>2.172937393188477</v>
       </c>
       <c r="B1">
-        <v>2.157565213329777</v>
+        <v>2.50653076171875</v>
       </c>
       <c r="C1">
-        <v>8.185888863559693</v>
+        <v>2.63999080657959</v>
       </c>
       <c r="D1">
-        <v>2.491978505448444</v>
+        <v>3.250929117202759</v>
       </c>
       <c r="E1">
-        <v>0.981904245959913</v>
+        <v>2.325813770294189</v>
       </c>
     </row>
   </sheetData>
